--- a/Documentation/Documents/planningTaboada.xlsx
+++ b/Documentation/Documents/planningTaboada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     </r>
   </si>
   <si>
-    <t>Schéma</t>
-  </si>
-  <si>
     <t>Montage PCB</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Back-end Android</t>
+  </si>
+  <si>
+    <t>Schéma Alim</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1189,8 @@
   <dimension ref="A2:CO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6735" activePane="topRight"/>
-      <selection activeCell="G17" sqref="G17"/>
+      <pane xSplit="6735"/>
+      <selection activeCell="G11" sqref="G11"/>
       <selection pane="topRight" activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
@@ -1210,7 +1210,7 @@
   <sheetData>
     <row r="2" spans="2:93" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -1226,7 +1226,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="I3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1445,7 +1445,7 @@
         <v>42884</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT8" s="20">
         <v>42886</v>
@@ -1529,7 +1529,7 @@
         <v>42912</v>
       </c>
       <c r="BU8" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BV8" s="20">
         <v>42914</v>
@@ -1574,7 +1574,7 @@
         <v>42927</v>
       </c>
       <c r="CJ8" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CK8" s="20">
         <v>42929</v>
@@ -1589,12 +1589,12 @@
         <v>42932</v>
       </c>
       <c r="CO8" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="10" spans="2:93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C10" s="22">
         <v>42849</v>
@@ -1621,12 +1621,12 @@
         <v>9</v>
       </c>
       <c r="G10" s="15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="22">
         <f>C10+D10+2</f>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="12" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="22">
         <f>C11+D11+14</f>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="13" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="22">
         <f t="shared" ref="C13:C17" si="2">C12+D12</f>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="14" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="22">
         <f t="shared" si="2"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="15" spans="2:93" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="22">
         <v>42887</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="16" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="22">
         <f>C15+D15+14</f>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="22">
         <f t="shared" si="2"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="25">
         <v>42856</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="25">
         <v>42856</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="25">
         <f>C23+D23+2</f>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="25">
         <v>42863</v>
@@ -1971,7 +1971,7 @@
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="25">
         <v>42849</v>

--- a/Documentation/Documents/planningTaboada.xlsx
+++ b/Documentation/Documents/planningTaboada.xlsx
@@ -1188,10 +1188,10 @@
   </sheetPr>
   <dimension ref="A2:CO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6735"/>
-      <selection activeCell="G11" sqref="G11"/>
-      <selection pane="topRight" activeCell="AD38" sqref="AD38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5325" topLeftCell="I1" activePane="topRight"/>
+      <selection activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1208,7 @@
     <col min="29" max="70" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:93" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="2:93" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -1233,7 +1233,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="42">
-        <v>42857</v>
+        <v>42860</v>
       </c>
       <c r="O3" s="42"/>
       <c r="Q3" s="9"/>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:93" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1274,12 +1274,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:93" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="17" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:93" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1592,7 +1592,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1604,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:93" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
@@ -1839,6 +1840,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>42856</v>
       </c>
       <c r="D22" s="24">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" ref="E22:F24" si="3">C22</f>
@@ -1865,7 +1867,7 @@
       </c>
       <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G22" s="15">
         <v>0.6</v>
@@ -1879,7 +1881,7 @@
         <v>42856</v>
       </c>
       <c r="D23" s="24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" ref="E23" si="4">C23</f>
@@ -1887,7 +1889,7 @@
       </c>
       <c r="F23" s="14">
         <f t="shared" ref="F23" si="5">D23</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G23" s="15">
         <v>0.4</v>
@@ -1899,18 +1901,18 @@
       </c>
       <c r="C24" s="25">
         <f>C23+D23+2</f>
-        <v>42870</v>
+        <v>42877</v>
       </c>
       <c r="D24" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="3"/>
-        <v>42870</v>
+        <v>42877</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -1921,14 +1923,14 @@
         <v>32</v>
       </c>
       <c r="C25" s="25">
-        <v>42863</v>
+        <v>42870</v>
       </c>
       <c r="D25" s="24">
         <v>12</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" ref="E25:E33" si="6">C25</f>
-        <v>42863</v>
+        <v>42870</v>
       </c>
       <c r="F25" s="14">
         <f>D25</f>
@@ -2047,7 +2049,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
